--- a/src/test/resources/Testdata/challenge.xlsx
+++ b/src/test/resources/Testdata/challenge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16140"/>
+    <workbookView windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>TestCase</t>
   </si>
@@ -112,13 +112,16 @@
     <t>Robertson</t>
   </si>
   <si>
-    <t>TC_05</t>
+    <t>RegisterUser</t>
   </si>
   <si>
     <t>Doug</t>
   </si>
   <si>
     <t>Derrick</t>
+  </si>
+  <si>
+    <t>1932</t>
   </si>
   <si>
     <t>Timepath Inc.</t>
@@ -183,12 +186,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -203,6 +206,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="19.5"/>
+      <color rgb="FF00627A"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -214,17 +223,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -232,16 +265,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,83 +297,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,10 +349,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -369,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,26 +587,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,50 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -675,161 +651,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,11 +1163,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="37.0625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10.5625" customWidth="1"/>
     <col min="5" max="7" width="10" customWidth="1"/>
@@ -1213,16 +1225,16 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1248,7 +1260,7 @@
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1257,7 +1269,7 @@
       <c r="G3" s="2">
         <v>1932</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1283,7 +1295,7 @@
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1292,7 +1304,7 @@
       <c r="G4" s="2">
         <v>1932</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1318,7 +1330,7 @@
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1327,7 +1339,7 @@
       <c r="G5" s="2">
         <v>1932</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1340,8 +1352,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="23.2" spans="1:11">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1353,20 +1365,20 @@
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4">
-        <v>9</v>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2">
-        <v>1932</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
@@ -1377,18 +1389,18 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1397,11 +1409,11 @@
       <c r="G7" s="2">
         <v>1932</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>9</v>
@@ -1412,18 +1424,18 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1432,11 +1444,11 @@
       <c r="G8" s="2">
         <v>1932</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>9</v>
@@ -1447,18 +1459,18 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1467,11 +1479,11 @@
       <c r="G9" s="2">
         <v>1932</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
@@ -1482,18 +1494,18 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1502,11 +1514,11 @@
       <c r="G10" s="2">
         <v>1932</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
@@ -1517,18 +1529,18 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1537,11 +1549,11 @@
       <c r="G11" s="2">
         <v>1932</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>9</v>
